--- a/Resources/real_data/Input1_Refactored.xlsx
+++ b/Resources/real_data/Input1_Refactored.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-480" yWindow="0" windowWidth="16720" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="4520" yWindow="0" windowWidth="16720" windowHeight="16820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$I$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$I$89</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="106">
   <si>
     <t>Course Name</t>
   </si>
@@ -48,9 +48,6 @@
     <t>MS/HS PE</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>6th Grade Art</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Drawing and Painting</t>
   </si>
   <si>
-    <t>Empty</t>
-  </si>
-  <si>
     <t>English Seminar</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
   </si>
   <si>
     <t>J</t>
-  </si>
-  <si>
-    <t>Z</t>
   </si>
   <si>
     <t>HS Category</t>
@@ -397,8 +388,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -452,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="53">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -477,6 +472,8 @@
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -501,6 +498,8 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -830,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -851,30 +850,30 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" t="s">
         <v>74</v>
-      </c>
-      <c r="D1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -883,15 +882,15 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -900,15 +899,15 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -917,18 +916,18 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4">
         <v>8</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -937,18 +936,18 @@
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -960,12 +959,12 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -974,12 +973,12 @@
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -988,15 +987,15 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -1005,7 +1004,7 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H9">
         <v>9</v>
@@ -1025,7 +1024,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1042,15 +1041,15 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -1059,12 +1058,12 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -1073,12 +1072,15 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14">
         <v>10</v>
@@ -1087,12 +1089,12 @@
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -1104,15 +1106,15 @@
         <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -1121,15 +1123,15 @@
         <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -1138,12 +1140,12 @@
         <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -1152,12 +1154,12 @@
         <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -1166,12 +1168,12 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -1180,12 +1182,12 @@
         <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>10</v>
@@ -1194,15 +1196,15 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -1211,23 +1213,26 @@
         <v>22</v>
       </c>
       <c r="G22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>10</v>
       </c>
       <c r="E23">
         <v>22</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>10</v>
@@ -1236,12 +1241,15 @@
         <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>71</v>
+        <v>64</v>
+      </c>
+      <c r="I24" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="D25">
         <v>10</v>
@@ -1249,13 +1257,19 @@
       <c r="E25">
         <v>22</v>
       </c>
-      <c r="G25" t="s">
-        <v>67</v>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
       </c>
       <c r="D26">
         <v>10</v>
@@ -1263,16 +1277,13 @@
       <c r="E26">
         <v>22</v>
       </c>
-      <c r="F26" t="s">
-        <v>51</v>
+      <c r="G26" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -1280,13 +1291,13 @@
       <c r="E27">
         <v>22</v>
       </c>
-      <c r="G27" t="s">
-        <v>66</v>
+      <c r="F27" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="D28">
         <v>10</v>
@@ -1295,12 +1306,15 @@
         <v>22</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="I28" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29">
         <v>10</v>
@@ -1309,12 +1323,12 @@
         <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30">
         <v>10</v>
@@ -1323,12 +1337,12 @@
         <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31">
         <v>10</v>
@@ -1336,13 +1350,16 @@
       <c r="E31">
         <v>22</v>
       </c>
-      <c r="F31" t="s">
-        <v>57</v>
+      <c r="G31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -1351,12 +1368,12 @@
         <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -1370,7 +1387,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D34">
         <v>10</v>
@@ -1379,12 +1396,15 @@
         <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
       </c>
       <c r="D35">
         <v>10</v>
@@ -1393,15 +1413,15 @@
         <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="I35" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D36">
         <v>10</v>
@@ -1410,15 +1430,12 @@
         <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="D37">
         <v>10</v>
@@ -1427,12 +1444,12 @@
         <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D38">
         <v>10</v>
@@ -1441,12 +1458,18 @@
         <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
       </c>
       <c r="D39">
         <v>10</v>
@@ -1454,39 +1477,33 @@
       <c r="E39">
         <v>22</v>
       </c>
-      <c r="G39" t="s">
-        <v>65</v>
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" t="s">
-        <v>75</v>
-      </c>
       <c r="D40">
         <v>10</v>
       </c>
       <c r="E40">
         <v>22</v>
       </c>
-      <c r="F40" t="s">
-        <v>59</v>
-      </c>
-      <c r="H40">
-        <v>6</v>
+      <c r="G40" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D41">
         <v>10</v>
@@ -1494,13 +1511,19 @@
       <c r="E41">
         <v>22</v>
       </c>
+      <c r="F41" t="s">
+        <v>55</v>
+      </c>
       <c r="G41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
       </c>
       <c r="D42">
         <v>10</v>
@@ -1509,18 +1532,15 @@
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -1528,16 +1548,16 @@
       <c r="E43">
         <v>22</v>
       </c>
-      <c r="F43" t="s">
-        <v>57</v>
-      </c>
       <c r="G43" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="I43" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="D44">
         <v>10</v>
@@ -1546,15 +1566,15 @@
         <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>67</v>
-      </c>
-      <c r="I44" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
       </c>
       <c r="D45">
         <v>10</v>
@@ -1562,16 +1582,13 @@
       <c r="E45">
         <v>22</v>
       </c>
-      <c r="G45" t="s">
-        <v>71</v>
+      <c r="F45" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -1580,12 +1597,12 @@
         <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -1594,12 +1611,15 @@
         <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="I47" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D48">
         <v>10</v>
@@ -1608,15 +1628,15 @@
         <v>22</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D49">
         <v>10</v>
@@ -1625,12 +1645,18 @@
         <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="I49" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>103</v>
+        <v>7</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
       </c>
       <c r="D50">
         <v>10</v>
@@ -1639,15 +1665,18 @@
         <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="G50" t="s">
+        <v>60</v>
+      </c>
+      <c r="I50" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D51">
         <v>10</v>
@@ -1656,18 +1685,18 @@
         <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D52">
         <v>10</v>
@@ -1676,18 +1705,15 @@
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="I52" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="D53">
         <v>10</v>
@@ -1696,15 +1722,12 @@
         <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
-      </c>
-      <c r="I53" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D54">
         <v>10</v>
@@ -1713,12 +1736,12 @@
         <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D55">
         <v>10</v>
@@ -1726,13 +1749,22 @@
       <c r="E55">
         <v>22</v>
       </c>
-      <c r="F55" t="s">
-        <v>54</v>
+      <c r="G55" t="s">
+        <v>64</v>
+      </c>
+      <c r="I55" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>95</v>
+        <v>38</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
       </c>
       <c r="D56">
         <v>10</v>
@@ -1740,16 +1772,16 @@
       <c r="E56">
         <v>22</v>
       </c>
-      <c r="G56" t="s">
-        <v>67</v>
+      <c r="F56" t="s">
+        <v>54</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B57">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D57">
         <v>10</v>
@@ -1757,34 +1789,28 @@
       <c r="E57">
         <v>22</v>
       </c>
-      <c r="F57" t="s">
-        <v>61</v>
-      </c>
       <c r="G57" t="s">
-        <v>61</v>
+        <v>64</v>
+      </c>
+      <c r="I57" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58" t="s">
-        <v>75</v>
-      </c>
       <c r="D58">
         <v>10</v>
       </c>
       <c r="E58">
         <v>22</v>
       </c>
-      <c r="F58" t="s">
-        <v>56</v>
-      </c>
-      <c r="H58">
-        <v>6</v>
+      <c r="G58" t="s">
+        <v>66</v>
+      </c>
+      <c r="I58" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -1798,10 +1824,10 @@
         <v>22</v>
       </c>
       <c r="G59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -1815,10 +1841,7 @@
         <v>22</v>
       </c>
       <c r="G60" t="s">
-        <v>69</v>
-      </c>
-      <c r="I60" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -1832,15 +1855,12 @@
         <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>69</v>
-      </c>
-      <c r="I61" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="D62">
         <v>10</v>
@@ -1848,13 +1868,13 @@
       <c r="E62">
         <v>22</v>
       </c>
-      <c r="G62" t="s">
-        <v>64</v>
+      <c r="F62" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="D63">
         <v>10</v>
@@ -1862,13 +1882,16 @@
       <c r="E63">
         <v>22</v>
       </c>
-      <c r="G63" t="s">
-        <v>64</v>
+      <c r="F63" t="s">
+        <v>53</v>
+      </c>
+      <c r="I63" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D64">
         <v>10</v>
@@ -1877,12 +1900,15 @@
         <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>92</v>
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
       </c>
       <c r="D65">
         <v>10</v>
@@ -1896,7 +1922,10 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>106</v>
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
       </c>
       <c r="D66">
         <v>10</v>
@@ -1905,15 +1934,12 @@
         <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B67">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D67">
         <v>10</v>
@@ -1922,15 +1948,18 @@
         <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="G67" t="s">
+        <v>66</v>
+      </c>
+      <c r="I67" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="D68">
         <v>10</v>
@@ -1938,13 +1967,16 @@
       <c r="E68">
         <v>22</v>
       </c>
-      <c r="F68" t="s">
-        <v>57</v>
+      <c r="G68" t="s">
+        <v>66</v>
+      </c>
+      <c r="I68" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D69">
         <v>10</v>
@@ -1952,16 +1984,13 @@
       <c r="E69">
         <v>22</v>
       </c>
-      <c r="F69" t="s">
-        <v>55</v>
-      </c>
       <c r="G69" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D70">
         <v>10</v>
@@ -1970,15 +1999,12 @@
         <v>22</v>
       </c>
       <c r="G70" t="s">
-        <v>69</v>
-      </c>
-      <c r="I70" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D71">
         <v>10</v>
@@ -1992,7 +2018,7 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D72">
         <v>10</v>
@@ -2001,39 +2027,11 @@
         <v>22</v>
       </c>
       <c r="G72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D73">
-        <v>10</v>
-      </c>
-      <c r="E73">
-        <v>22</v>
-      </c>
-      <c r="G73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D74">
-        <v>10</v>
-      </c>
-      <c r="E74">
-        <v>22</v>
-      </c>
-      <c r="G74" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I91">
+  <autoFilter ref="A1:I89">
     <sortState ref="A2:I73">
       <sortCondition ref="A1:A90"/>
     </sortState>

--- a/Resources/real_data/Input1_Refactored.xlsx
+++ b/Resources/real_data/Input1_Refactored.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
   <si>
     <t>Course Name</t>
   </si>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1308,9 +1308,6 @@
       <c r="F28" t="s">
         <v>48</v>
       </c>
-      <c r="I28" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
@@ -1809,9 +1806,6 @@
       <c r="G58" t="s">
         <v>66</v>
       </c>
-      <c r="I58" t="s">
-        <v>76</v>
-      </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
@@ -1825,9 +1819,6 @@
       </c>
       <c r="G59" t="s">
         <v>66</v>
-      </c>
-      <c r="I59" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:9">
